--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF35B8-3CFA-4739-940D-00AF2A74D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,16 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -896,15 +906,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他
+    <t>01-存款不足</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提回會計日期</t>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提回規格
+00:成功
+01:存款不足
+02:非委託用戶
+03:已終止委託用戶
+04:無此帳號
+05:收受者統編錯誤
+06:無此用戶號碼
+07:用戶號碼不符
+08:信用卡額度不足
+09:未開卡
+10:部分存款不足
+11:超過扣款限額
+22:帳戶已結清
+23:靜止戶
+24:凍結戶
+25:帳戶存款遭法院強制執行
+26:警示戶
+27:該用戶已死亡
+28:發動行申請停止入扣帳
+91:請參考備註一
+99:其他
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:火險費
+2:帳管費
+3:期款
+4:貸後契變手續費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayType
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他
 銀扣媒體檔用
 1.火險費 
 2.帳管費 
@@ -912,37 +970,11 @@
 4.貸後契變手續費</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
-  <si>
-    <t>01-存款不足</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.火險費
-2.帳管費
-3.期款
-4.貸後契變手續費</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>提回會計日期</t>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>提回規格，00-成功</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1297,6 +1329,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1307,18 +1345,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1410,6 +1442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1445,6 +1494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1620,11 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1639,10 +1705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
@@ -1654,8 +1720,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
@@ -1667,10 +1733,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
@@ -1682,10 +1748,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1693,10 +1759,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
@@ -1706,10 +1772,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
@@ -1719,10 +1785,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1861,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1882,7 +1948,7 @@
       </c>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="405">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -1899,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1991,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2136,8 +2202,8 @@
       <c r="E29" s="22">
         <v>8</v>
       </c>
-      <c r="G29" s="45" t="s">
-        <v>235</v>
+      <c r="G29" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2156,7 +2222,7 @@
       <c r="E30" s="22">
         <v>6</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="16">
@@ -2255,7 +2321,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G16" location="提回!A1" display="提回規格"/>
+    <hyperlink ref="G16" location="提回!A1" display="提回規格" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2263,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2328,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -3395,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3416,7 +3482,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>205</v>
@@ -3691,7 +3757,7 @@
         <v>98</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J10" s="28"/>
     </row>
@@ -3996,7 +4062,7 @@
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF35B8-3CFA-4739-940D-00AF2A74D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="提出" sheetId="4" r:id="rId3"/>
     <sheet name="提回" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -276,10 +275,6 @@
   </si>
   <si>
     <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayType</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -954,6 +949,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>RepayType</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode.RepayType
 1:期款
 2:部分償還
@@ -962,19 +961,14 @@
 5:火險費
 6:契變手續費
 7:法務費
-9:其他
-銀扣媒體檔用
-1.火險費 
-2.帳管費 
-3.期款 
-4.貸後契變手續費</t>
+9:其他</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1350,7 +1344,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1442,23 +1436,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1494,23 +1471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1686,11 +1646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1723,7 +1683,7 @@
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1823,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>44</v>
@@ -1841,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>45</v>
@@ -1853,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1861,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>46</v>
@@ -1910,12 +1870,12 @@
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="243">
+    <row r="14" spans="1:7" ht="145.80000000000001">
       <c r="A14" s="16">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>32</v>
@@ -1965,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1991,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>23</v>
@@ -2045,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>26</v>
@@ -2057,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2122,7 +2082,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>41</v>
@@ -2203,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2246,13 +2206,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="23"/>
@@ -2262,13 +2222,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="E33" s="22">
         <v>6</v>
@@ -2280,13 +2240,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="E34" s="22"/>
       <c r="G34" s="23"/>
@@ -2296,13 +2256,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="22">
         <v>6</v>
@@ -2321,7 +2281,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G16" location="提回!A1" display="提回規格" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G16" location="提回!A1" display="提回規格"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2329,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2366,24 +2326,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -2415,28 +2375,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>209</v>
-      </c>
       <c r="G1" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2444,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>214</v>
-      </c>
       <c r="D2" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="36">
         <v>3</v>
@@ -2463,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2471,13 +2431,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="26">
         <v>6</v>
@@ -2491,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2499,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="26">
         <v>8</v>
@@ -2519,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2527,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="26">
         <v>6</v>
@@ -2547,7 +2507,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2555,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="26">
         <v>7</v>
@@ -2575,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2583,13 +2543,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="26">
         <v>7</v>
@@ -2603,7 +2563,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2611,13 +2571,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="26">
         <v>123</v>
@@ -2647,13 +2607,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="E10" s="26">
         <v>1</v>
@@ -2665,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2673,13 +2633,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="26">
         <v>2</v>
@@ -2693,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2701,13 +2661,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -2721,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2729,13 +2689,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="E13" s="26">
         <v>6</v>
@@ -2755,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>110</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26">
         <v>7</v>
@@ -2775,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2783,13 +2743,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="26">
         <v>14</v>
@@ -2803,7 +2763,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2811,13 +2771,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="26">
         <v>7</v>
@@ -2831,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2839,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="26">
         <v>14</v>
@@ -2865,13 +2825,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="26">
         <v>10</v>
@@ -2891,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="D19" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
@@ -2911,7 +2871,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2919,13 +2879,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="D20" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -2939,7 +2899,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2947,13 +2907,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="D21" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="26">
         <v>10</v>
@@ -2967,7 +2927,7 @@
         <v>77</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2975,13 +2935,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>136</v>
-      </c>
       <c r="D22" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="26">
         <v>10</v>
@@ -2995,7 +2955,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3003,13 +2963,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>140</v>
-      </c>
       <c r="D23" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="26">
         <v>6</v>
@@ -3023,7 +2983,7 @@
         <v>93</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3031,13 +2991,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>144</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="26">
         <v>8</v>
@@ -3051,7 +3011,7 @@
         <v>101</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3059,13 +3019,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="26">
         <v>6</v>
@@ -3079,7 +3039,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3087,13 +3047,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="D26" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
@@ -3107,7 +3067,7 @@
         <v>108</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3115,13 +3075,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>156</v>
-      </c>
       <c r="D27" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="26">
         <v>20</v>
@@ -3135,7 +3095,7 @@
         <v>128</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3143,13 +3103,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>160</v>
-      </c>
       <c r="D28" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="26">
         <v>20</v>
@@ -3163,7 +3123,7 @@
         <v>148</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3171,13 +3131,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="26">
         <v>10</v>
@@ -3191,7 +3151,7 @@
         <v>158</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3199,13 +3159,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>168</v>
-      </c>
       <c r="D30" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="26">
         <v>2</v>
@@ -3219,7 +3179,7 @@
         <v>160</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3237,13 +3197,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>172</v>
-      </c>
       <c r="D32" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="26">
         <v>3</v>
@@ -3255,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3263,13 +3223,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>176</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -3283,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3291,13 +3251,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="26">
         <v>8</v>
@@ -3311,7 +3271,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3319,13 +3279,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="D35" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="26">
         <v>7</v>
@@ -3339,7 +3299,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3347,13 +3307,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="D36" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="26">
         <v>7</v>
@@ -3367,7 +3327,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3375,13 +3335,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>193</v>
-      </c>
       <c r="D37" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="26">
         <v>8</v>
@@ -3395,7 +3355,7 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3403,13 +3363,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>197</v>
-      </c>
       <c r="D38" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="26">
         <v>16</v>
@@ -3423,7 +3383,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3431,13 +3391,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="26">
         <v>105</v>
@@ -3451,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3482,31 +3442,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="J1" s="35"/>
     </row>
@@ -3515,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>214</v>
-      </c>
       <c r="D2" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="36">
         <v>3</v>
@@ -3534,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -3544,13 +3504,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="26">
         <v>6</v>
@@ -3564,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="J3" s="28"/>
     </row>
@@ -3576,13 +3536,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="26">
         <v>8</v>
@@ -3596,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -3606,13 +3566,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="26">
         <v>6</v>
@@ -3626,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -3636,13 +3596,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="26">
         <v>7</v>
@@ -3656,7 +3616,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -3666,13 +3626,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="26">
         <v>7</v>
@@ -3686,7 +3646,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -3696,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="26">
         <v>123</v>
@@ -3736,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="E10" s="26">
         <v>1</v>
@@ -3754,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J10" s="28"/>
     </row>
@@ -3766,13 +3726,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="26">
         <v>2</v>
@@ -3786,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -3796,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -3816,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -3826,13 +3786,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="E13" s="26">
         <v>6</v>
@@ -3846,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -3856,13 +3816,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>110</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26">
         <v>7</v>
@@ -3876,7 +3836,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -3886,13 +3846,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="26">
         <v>14</v>
@@ -3906,7 +3866,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -3916,13 +3876,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="26">
         <v>7</v>
@@ -3936,7 +3896,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -3946,13 +3906,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="26">
         <v>14</v>
@@ -3966,7 +3926,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -3976,13 +3936,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="26">
         <v>10</v>
@@ -4004,13 +3964,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="D19" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
@@ -4024,13 +3984,13 @@
         <v>66</v>
       </c>
       <c r="H19" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="J19" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4038,13 +3998,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="D20" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -4058,11 +4018,11 @@
         <v>67</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4070,13 +4030,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="D21" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="26">
         <v>10</v>
@@ -4090,11 +4050,11 @@
         <v>77</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4102,13 +4062,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>136</v>
-      </c>
       <c r="D22" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="26">
         <v>10</v>
@@ -4122,11 +4082,11 @@
         <v>87</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4134,13 +4094,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>140</v>
-      </c>
       <c r="D23" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="26">
         <v>6</v>
@@ -4154,11 +4114,11 @@
         <v>93</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4166,13 +4126,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>144</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="26">
         <v>8</v>
@@ -4186,11 +4146,11 @@
         <v>101</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4198,13 +4158,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="26">
         <v>6</v>
@@ -4218,11 +4178,11 @@
         <v>107</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4230,13 +4190,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="D26" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
@@ -4250,11 +4210,11 @@
         <v>108</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4262,13 +4222,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>156</v>
-      </c>
       <c r="D27" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="26">
         <v>20</v>
@@ -4282,11 +4242,11 @@
         <v>128</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4294,13 +4254,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>160</v>
-      </c>
       <c r="D28" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="26">
         <v>20</v>
@@ -4314,11 +4274,11 @@
         <v>148</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4326,13 +4286,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="D29" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="26">
         <v>10</v>
@@ -4346,11 +4306,11 @@
         <v>158</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4358,13 +4318,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>168</v>
-      </c>
       <c r="D30" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="26">
         <v>2</v>
@@ -4378,11 +4338,11 @@
         <v>160</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4396,7 +4356,7 @@
       <c r="H31" s="32"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4404,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>172</v>
-      </c>
       <c r="D32" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="26">
         <v>3</v>
@@ -4422,11 +4382,11 @@
         <v>3</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4434,13 +4394,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>176</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
@@ -4454,13 +4414,13 @@
         <v>9</v>
       </c>
       <c r="H33" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4468,13 +4428,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="26">
         <v>8</v>
@@ -4488,11 +4448,11 @@
         <v>17</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4500,13 +4460,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="D35" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="26">
         <v>7</v>
@@ -4520,11 +4480,11 @@
         <v>24</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4532,13 +4492,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="D36" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="26">
         <v>7</v>
@@ -4552,11 +4512,11 @@
         <v>31</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4564,13 +4524,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>193</v>
-      </c>
       <c r="D37" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="26">
         <v>8</v>
@@ -4584,11 +4544,11 @@
         <v>39</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4596,13 +4556,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>197</v>
-      </c>
       <c r="D38" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="26">
         <v>16</v>
@@ -4616,11 +4576,11 @@
         <v>55</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4628,13 +4588,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>200</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="26">
         <v>8</v>
@@ -4648,11 +4608,11 @@
         <v>63</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4660,13 +4620,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="26">
         <v>97</v>
@@ -4680,7 +4640,7 @@
         <v>160</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchDeductMedia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -893,12 +893,6 @@
   <si>
     <t>補0</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:非ACH
-1:ACH新光
-2:ACH他行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>01-存款不足</t>
@@ -963,6 +957,12 @@
 7:法務費
 9:其他</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:ACH新光
+2:ACH他行
+else:非ACH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1875,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>32</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2163,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3442,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickBot="1">
       <c r="A1" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>204</v>
@@ -3717,7 +3717,7 @@
         <v>97</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="28"/>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10">
